--- a/doc/02_外部設計/02_DB定義書_B2.xlsx
+++ b/doc/02_外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591770F4-A0DD-4D24-89E5-EDCC7CD90244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8AF553-7ED8-49D8-8F49-B0BDBE3DA383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="131">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -274,13 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外部キー</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>email</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -513,16 +506,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>清算済かどうか</t>
-    <rPh sb="0" eb="2">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日時</t>
     <rPh sb="0" eb="2">
       <t>ニチジ</t>
@@ -534,29 +517,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認済みかどうか</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部キー(立替え人)</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タテカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TIA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -698,18 +658,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HOUSESテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TASK_DETAILSlテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USERSテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task_details_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -723,18 +671,6 @@
   </si>
   <si>
     <t>settlements_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXPENSESテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SETTLEMENTSテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TASK_DETAILSテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -800,6 +736,92 @@
   </si>
   <si>
     <t>item_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOUSESテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK_DETAILSlテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERSテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハウスID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク詳細ID</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出詳細ID</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精算ID</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SETTLEMENTSテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPENSESテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立替え人。USERSテーブルのID</t>
+    <rPh sb="0" eb="2">
+      <t>タテカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK_DETAILSテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清算済みフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認済みフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1233,8 +1255,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1268,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1314,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1329,7 +1351,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1344,7 +1366,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1359,7 +1381,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1371,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1386,10 +1408,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1401,10 +1423,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1419,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
@@ -1434,7 +1456,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
@@ -1449,7 +1471,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -1464,7 +1486,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1663,7 +1685,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1723,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1771,20 +1793,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1799,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1813,7 +1835,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1825,13 +1847,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1849,13 +1871,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1873,13 +1895,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2178,7 +2200,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2212,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2238,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2286,20 +2308,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2314,13 +2336,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2328,7 +2350,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2340,13 +2362,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2364,13 +2386,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2388,13 +2410,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2693,7 +2715,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2727,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2753,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2801,20 +2823,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2829,13 +2851,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2843,7 +2865,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2855,13 +2877,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2879,13 +2901,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2903,13 +2925,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3232,7 +3254,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3244,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3270,7 +3292,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3318,20 +3340,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3349,19 +3371,19 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L11" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3373,19 +3395,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3405,7 +3427,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3722,7 +3744,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3746,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3758,7 +3780,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3784,7 +3806,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3832,20 +3854,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3866,13 +3888,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3889,16 +3911,16 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3912,19 +3934,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3938,20 +3960,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="L14" t="e">
         <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4241,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AE223B-8379-452F-BCAE-5405FEABFBDB}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4266,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4278,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4304,7 +4328,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4352,20 +4376,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4380,20 +4404,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4405,13 +4429,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4419,7 +4443,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4431,13 +4455,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4455,13 +4479,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4481,13 +4505,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4770,7 +4794,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4804,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4830,7 +4854,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4878,20 +4902,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4906,13 +4930,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4930,13 +4954,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4954,13 +4978,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4980,13 +5004,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5006,13 +5030,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5020,7 +5044,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5295,7 +5319,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5319,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -5331,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5345,7 +5369,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5357,7 +5381,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5405,20 +5429,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5433,13 +5457,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5447,7 +5471,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5459,13 +5483,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5473,7 +5497,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5485,13 +5509,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5511,13 +5535,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5537,13 +5561,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5824,7 +5848,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5858,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5872,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5884,7 +5908,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5932,20 +5956,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5960,13 +5984,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5984,13 +6008,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6008,13 +6032,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6032,13 +6056,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6336,7 +6360,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6370,7 +6394,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6384,7 +6408,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6396,7 +6420,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6444,20 +6468,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6472,13 +6496,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6486,7 +6510,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6498,13 +6522,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6512,7 +6536,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6524,13 +6548,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6540,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6851,7 +6875,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6885,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6911,7 +6935,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6959,20 +6983,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6987,13 +7011,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7011,13 +7035,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7027,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7039,13 +7063,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7053,7 +7077,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7065,13 +7089,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7079,7 +7103,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/02_外部設計/02_DB定義書_B2.xlsx
+++ b/doc/02_外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8AF553-7ED8-49D8-8F49-B0BDBE3DA383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911356D-A29B-4A9A-AAFA-2D2194F142D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2784" yWindow="2484" windowWidth="17280" windowHeight="8880" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -364,14 +364,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expense_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>expense_date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -822,6 +814,14 @@
     <rPh sb="2" eb="3">
       <t>ズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receipt_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receipt_amount</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1255,7 +1255,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1278,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1336,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1351,7 +1351,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1366,7 +1366,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1381,7 +1381,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1393,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1408,10 +1408,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1423,10 +1423,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1441,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
@@ -1456,7 +1456,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
@@ -1471,7 +1471,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1793,20 +1793,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1821,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1835,7 +1835,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1847,13 +1847,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1871,13 +1871,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1895,13 +1895,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2234,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2260,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2308,20 +2308,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2336,13 +2336,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2350,7 +2350,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2362,13 +2362,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2386,13 +2386,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2410,13 +2410,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2749,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2775,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2823,20 +2823,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2851,13 +2851,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2865,7 +2865,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2877,13 +2877,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2907,7 +2907,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2925,13 +2925,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3254,7 +3254,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3292,7 +3292,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3340,20 +3340,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3371,19 +3371,19 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L11" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3395,19 +3395,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3427,7 +3427,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3768,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3806,7 +3806,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3854,20 +3854,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3888,13 +3888,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3914,13 +3914,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3934,19 +3934,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3960,13 +3960,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3974,7 +3974,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L14" t="e">
         <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4290,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4328,7 +4328,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4376,20 +4376,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4404,20 +4404,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4429,13 +4429,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4443,7 +4443,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4461,7 +4461,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4479,13 +4479,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4505,13 +4505,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4828,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4854,7 +4854,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4902,20 +4902,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4936,7 +4936,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4960,7 +4960,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4984,7 +4984,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5010,7 +5010,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5030,13 +5030,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5044,7 +5044,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5343,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -5355,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5369,7 +5369,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5381,7 +5381,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5429,20 +5429,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5457,13 +5457,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5471,7 +5471,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5483,13 +5483,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5497,7 +5497,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5509,13 +5509,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5535,13 +5535,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5561,13 +5561,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5847,8 +5847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EE2DA-3B4C-4E7E-AC9F-AD97DD11754D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5882,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5896,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5908,7 +5908,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5956,27 +5956,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C11&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>expense_type INT ,</v>
+        <v>receipt_name INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5987,10 +5987,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6000,7 +6000,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>amount VARCHAR(255) ,</v>
+        <v>receipt_amount VARCHAR(255) ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6011,10 +6011,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6038,7 +6038,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6059,10 +6059,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6394,7 +6394,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6408,7 +6408,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6420,7 +6420,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6468,20 +6468,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6496,13 +6496,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6510,7 +6510,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6522,13 +6522,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6536,7 +6536,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6548,13 +6548,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6909,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6935,7 +6935,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6983,20 +6983,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7011,13 +7011,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7035,13 +7035,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7051,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7063,13 +7063,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7077,7 +7077,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7089,13 +7089,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7103,7 +7103,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/02_外部設計/02_DB定義書_B2.xlsx
+++ b/doc/02_外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911356D-A29B-4A9A-AAFA-2D2194F142D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F1E0F2-EC28-4470-B835-588201B67655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="2484" windowWidth="17280" windowHeight="8880" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="131">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -4266,7 +4266,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4523,25 +4523,33 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">item_finish BOOLEAN </v>
+        <v>item_finish BOOLEAN ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">houses_id INT </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5318,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC26A93-215B-4CBE-9E4A-12A4109AF3A0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5584,18 +5592,26 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">houses_id INT </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5847,7 +5863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EE2DA-3B4C-4E7E-AC9F-AD97DD11754D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/doc/02_外部設計/02_DB定義書_B2.xlsx
+++ b/doc/02_外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F1E0F2-EC28-4470-B835-588201B67655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12F1DD-1031-47EF-B42F-DEAEC242A6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="TASKS" sheetId="6" r:id="rId4"/>
     <sheet name="TASK_DETAILS" sheetId="5" r:id="rId5"/>
     <sheet name="SETTLEMENTS" sheetId="7" r:id="rId6"/>
-    <sheet name="EXPENSES" sheetId="8" r:id="rId7"/>
-    <sheet name="APPROVALS" sheetId="21" r:id="rId8"/>
-    <sheet name="ITEMS" sheetId="10" r:id="rId9"/>
-    <sheet name="NOTIFICATIONS" sheetId="11" r:id="rId10"/>
-    <sheet name="BOARDS" sheetId="13" r:id="rId11"/>
-    <sheet name="SCHEDULES" sheetId="15" r:id="rId12"/>
+    <sheet name="APPROVALS" sheetId="21" r:id="rId7"/>
+    <sheet name="ITEMS" sheetId="10" r:id="rId8"/>
+    <sheet name="NOTIFICATIONS" sheetId="11" r:id="rId9"/>
+    <sheet name="BOARDS" sheetId="13" r:id="rId10"/>
+    <sheet name="SCHEDULES" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="128">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -658,10 +657,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expenses_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>settlements_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -758,16 +753,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>支出詳細ID</t>
-    <rPh sb="0" eb="2">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>精算ID</t>
     <rPh sb="0" eb="2">
       <t>セイサン</t>
@@ -776,10 +761,6 @@
   </si>
   <si>
     <t>SETTLEMENTSテーブルのID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXPENSESテーブルのID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1681,11 +1662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92528091-5D02-41B9-9996-ECFD7A7D8D43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E729BF3B-285D-4C45-AE9A-2288495E2924}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1745,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1785,7 +1766,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table NOTIFICATIONS (</v>
+        <v>create table BOARDS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1811,9 +1792,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ID INT ,</v>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1821,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>104</v>
@@ -1835,11 +1816,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>users_id INT ,</v>
+        <v>116</v>
+      </c>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1847,13 +1828,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1861,9 +1842,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>message TEXT ,</v>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1871,13 +1852,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1885,9 +1866,9 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>notification_date DATETIME ,</v>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1895,13 +1876,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1909,18 +1890,24 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">read BOOLEAN </v>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1929,7 +1916,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">houses_id INT </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2196,11 +2183,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E729BF3B-285D-4C45-AE9A-2288495E2924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608F1B4-F5C8-4B43-99C7-F39E7DE2BDFE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2235,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2260,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2300,7 +2287,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table BOARDS (</v>
+        <v>create table SCHEDULES (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2326,9 +2313,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2336,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>104</v>
@@ -2350,11 +2337,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>116</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>users_id INT ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2364,526 +2351,11 @@
       <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608F1B4-F5C8-4B43-99C7-F39E7DE2BDFE}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table SCHEDULES (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ID INT ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>users_id INT ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2941,16 +2413,22 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">date DATE </v>
+        <v>date DATE ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2959,7 +2437,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">houses_id INT </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3371,10 +2849,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
@@ -3383,7 +2861,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3401,7 +2879,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3427,7 +2905,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3888,7 +3366,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3914,7 +3392,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3940,7 +3418,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3960,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>102</v>
@@ -3974,7 +3452,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14" t="e">
         <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4266,7 +3744,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4404,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>103</v>
@@ -4417,7 +3895,7 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4429,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>104</v>
@@ -4443,7 +3921,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4479,7 +3957,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>52</v>
@@ -4505,10 +3983,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>75</v>
@@ -4531,7 +4009,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>102</v>
@@ -4545,7 +4023,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -4944,7 +4422,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5038,7 +4516,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>102</v>
@@ -5052,7 +4530,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5324,10 +4802,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC26A93-215B-4CBE-9E4A-12A4109AF3A0}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5465,7 +4943,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>104</v>
@@ -5479,11 +4957,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>users_id INT ,</v>
+        <v>122</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5491,88 +4969,70 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>expenses_id INT ,</v>
-      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>settlement_finish BOOLEAN ,</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>76</v>
@@ -5583,94 +5043,112 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="I16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">houses_id INT </v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>settlement_finish BOOLEAN ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L17" t="e">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L19:L32" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">houses_id INT </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5688,7 +5166,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5706,7 +5184,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5724,7 +5202,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5742,7 +5220,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5760,7 +5238,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5778,7 +5256,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5796,7 +5274,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5814,7 +5292,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5832,7 +5310,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5849,7 +5327,61 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5860,11 +5392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EE2DA-3B4C-4E7E-AC9F-AD97DD11754D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47178871-C516-4C16-B775-AB23EE7D3B44}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5912,518 +5444,6 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table EXPENSES (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>receipt_name INT ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>receipt_amount VARCHAR(255) ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>description INT ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47178871-C516-4C16-B775-AB23EE7D3B44}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -6512,10 +5532,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>73</v>
@@ -6526,7 +5546,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6538,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>104</v>
@@ -6552,7 +5572,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6886,7 +5906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F48B4A0-CE4B-4108-B6CB-94B9AD3A5826}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -7033,7 +6053,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7067,7 +6087,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7079,7 +6099,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>103</v>
@@ -7093,7 +6113,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7105,7 +6125,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>102</v>
@@ -7119,7 +6139,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -7405,4 +6425,519 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92528091-5D02-41B9-9996-ECFD7A7D8D43}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table NOTIFICATIONS (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ID INT ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>users_id INT ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>message TEXT ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>notification_date DATETIME ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">read BOOLEAN </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/02_外部設計/02_DB定義書_B2.xlsx
+++ b/doc/02_外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12F1DD-1031-47EF-B42F-DEAEC242A6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13DAA1-12F8-488D-B254-82167AE5387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="129">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -321,13 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>割当日</t>
-    <rPh sb="0" eb="3">
-      <t>ワリアテビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>assigned_date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -803,6 +796,20 @@
   </si>
   <si>
     <t>receipt_amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割当曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1259,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1271,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1317,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1332,7 +1339,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1347,7 +1354,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1362,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1374,10 +1381,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1389,10 +1396,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1404,10 +1411,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1422,7 +1429,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
@@ -1437,7 +1444,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
@@ -1452,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -1467,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1666,527 +1673,6 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table BOARDS (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">houses_id INT </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608F1B4-F5C8-4B43-99C7-F39E7DE2BDFE}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2221,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2235,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2247,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2287,7 +1773,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table SCHEDULES (</v>
+        <v>create table BOARDS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2295,20 +1781,541 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">houses_id INT </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608F1B4-F5C8-4B43-99C7-F39E7DE2BDFE}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table SCHEDULES (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2323,13 +2330,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2337,7 +2344,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2349,13 +2356,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2373,13 +2380,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2397,13 +2404,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2421,13 +2428,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2732,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -2744,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2770,7 +2777,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2818,20 +2825,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2849,19 +2856,19 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L11" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2873,19 +2880,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2905,7 +2912,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3246,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3258,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3284,7 +3291,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3332,20 +3339,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3366,13 +3373,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3392,13 +3399,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3412,19 +3419,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3438,13 +3445,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3452,7 +3459,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" t="e">
         <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3744,7 +3751,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3768,7 +3775,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3780,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3806,7 +3813,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3854,20 +3861,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3882,20 +3889,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3907,13 +3914,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3921,7 +3928,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3933,13 +3940,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3949,7 +3956,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>assigned_date DATE ,</v>
+        <v>assigned_date VARCHAR(30) ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3957,13 +3964,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3983,13 +3990,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4009,13 +4016,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4023,7 +4030,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -4279,8 +4286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59430D0A-61B6-4E52-8E1F-75045A5749F1}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4314,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4340,7 +4347,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4388,20 +4395,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4422,7 +4429,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4446,7 +4453,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4470,7 +4477,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4496,7 +4503,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4516,13 +4523,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4530,7 +4537,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4829,7 +4836,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4841,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4855,7 +4862,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4867,7 +4874,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4915,20 +4922,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4943,13 +4950,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4957,7 +4964,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4969,13 +4976,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4989,13 +4996,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5009,13 +5016,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5029,13 +5036,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5049,13 +5056,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5075,13 +5082,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5101,13 +5108,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -5125,13 +5132,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5139,7 +5146,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ref="L19:L32" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
@@ -5430,7 +5437,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5444,7 +5451,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5456,7 +5463,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5504,20 +5511,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5532,13 +5539,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5546,7 +5553,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5558,13 +5565,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5572,7 +5579,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5584,13 +5591,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5600,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5945,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5971,7 +5978,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6019,20 +6026,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6047,13 +6054,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6071,13 +6078,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6087,7 +6094,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6099,13 +6106,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6113,7 +6120,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6125,13 +6132,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6139,7 +6146,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6466,7 +6473,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6492,7 +6499,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6540,20 +6547,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6568,13 +6575,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6582,7 +6589,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6594,13 +6601,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6618,13 +6625,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6642,13 +6649,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>

--- a/doc/02_外部設計/02_DB定義書_B2.xlsx
+++ b/doc/02_外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13DAA1-12F8-488D-B254-82167AE5387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C26C66F-76FA-4CEF-9F12-08EEE38DBFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="834" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="127">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BOOLEAN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -541,16 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>支出詳細</t>
-    <rPh sb="0" eb="2">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>支出精算</t>
     <rPh sb="0" eb="2">
       <t>シシュツ</t>
@@ -618,10 +604,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EXPENSES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>APPROVALS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,6 +792,10 @@
   </si>
   <si>
     <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1241,10 +1227,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1252,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1278,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1324,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1339,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1354,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1369,7 +1355,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1381,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1393,13 +1379,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1408,13 +1394,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1423,13 +1409,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
@@ -1438,13 +1424,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
@@ -1453,13 +1439,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -1468,22 +1454,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1492,7 +1472,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1501,7 +1481,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1510,7 +1490,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1519,7 +1499,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1528,7 +1508,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1537,7 +1517,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1546,7 +1526,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1555,7 +1535,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1564,7 +1544,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1573,7 +1553,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1582,7 +1562,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1591,7 +1571,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1600,7 +1580,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1609,7 +1589,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1618,7 +1598,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1627,7 +1607,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1636,7 +1616,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1645,21 +1625,12 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1673,7 +1644,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1707,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1733,7 +1704,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1781,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -1809,10 +1780,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>72</v>
@@ -1823,7 +1794,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -1841,7 +1812,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1865,7 +1836,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1889,7 +1860,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1907,10 +1878,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>72</v>
@@ -2194,7 +2165,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2228,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2254,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2302,10 +2273,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -2330,10 +2301,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>72</v>
@@ -2344,7 +2315,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2362,7 +2333,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2386,7 +2357,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2396,7 +2367,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>description TEXT ,</v>
+        <v>description VARCHAR(500) ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2404,13 +2375,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2428,10 +2399,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>72</v>
@@ -2739,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -2751,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2777,7 +2748,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2825,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -2856,10 +2827,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
@@ -2868,7 +2839,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L11" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2886,7 +2857,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2912,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3229,7 +3200,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3253,7 +3224,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3265,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3291,7 +3262,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3339,10 +3310,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -3373,14 +3344,12 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
@@ -3399,7 +3368,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3425,7 +3394,7 @@
         <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3445,10 +3414,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>72</v>
@@ -3459,7 +3428,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L14" t="e">
         <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3775,7 +3744,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3787,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3813,7 +3782,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3861,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -3889,10 +3858,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>72</v>
@@ -3902,7 +3871,7 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3914,10 +3883,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>72</v>
@@ -3928,7 +3897,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3940,13 +3909,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3964,13 +3933,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3990,13 +3959,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4016,10 +3985,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>72</v>
@@ -4030,7 +3999,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -4286,8 +4255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59430D0A-61B6-4E52-8E1F-75045A5749F1}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4321,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4347,7 +4316,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4395,10 +4364,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -4429,7 +4398,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4453,7 +4422,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4463,7 +4432,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>description TEXT ,</v>
+        <v>description VARCHAR(500) ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4523,10 +4492,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>72</v>
@@ -4537,7 +4506,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4812,7 +4781,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4836,7 +4805,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4848,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4862,7 +4831,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4874,7 +4843,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4922,10 +4891,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -4950,10 +4919,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>72</v>
@@ -4964,7 +4933,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4979,10 +4948,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4999,7 +4968,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>72</v>
@@ -5022,7 +4991,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5042,7 +5011,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5056,13 +5025,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5082,13 +5051,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5114,7 +5083,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -5132,10 +5101,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>72</v>
@@ -5146,7 +5115,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ref="L19:L32" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
@@ -5437,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5451,7 +5420,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5463,7 +5432,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5511,10 +5480,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -5539,10 +5508,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>72</v>
@@ -5553,7 +5522,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5565,10 +5534,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>72</v>
@@ -5579,7 +5548,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5591,13 +5560,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5607,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5952,7 +5921,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5978,7 +5947,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6026,10 +5995,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -6060,7 +6029,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6094,7 +6063,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6106,10 +6075,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>72</v>
@@ -6120,7 +6089,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6132,10 +6101,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>72</v>
@@ -6146,7 +6115,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6438,8 +6407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92528091-5D02-41B9-9996-ECFD7A7D8D43}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6473,7 +6442,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6499,7 +6468,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6547,10 +6516,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -6575,10 +6544,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>72</v>
@@ -6589,7 +6558,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6607,7 +6576,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6617,7 +6586,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>message TEXT ,</v>
+        <v>message VARCHAR(255) ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6631,7 +6600,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6655,7 +6624,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>

--- a/doc/02_外部設計/02_DB定義書_B2.xlsx
+++ b/doc/02_外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C26C66F-76FA-4CEF-9F12-08EEE38DBFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A605BCC7-3B1E-43F4-AE76-7EFF33D4A27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="834" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="128">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -796,6 +796,10 @@
   </si>
   <si>
     <t>VARCHAR(500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tittle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1643,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E729BF3B-285D-4C45-AE9A-2288495E2924}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1813,7 @@
         <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>102</v>
@@ -6407,7 +6411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92528091-5D02-41B9-9996-ECFD7A7D8D43}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
